--- a/outcome/simulate data/B_HBV.xlsx
+++ b/outcome/simulate data/B_HBV.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>84620.4726793372</v>
+        <v>108499.405528234</v>
       </c>
       <c r="C2" t="n">
-        <v>66924.1481537238</v>
+        <v>90705.1065953584</v>
       </c>
       <c r="D2" t="n">
-        <v>57556.2798201166</v>
+        <v>81285.3737434462</v>
       </c>
       <c r="E2" t="n">
-        <v>102316.797204951</v>
+        <v>126293.704461109</v>
       </c>
       <c r="F2" t="n">
-        <v>111684.665538558</v>
+        <v>135713.437313021</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>87614.556292768</v>
+        <v>113284.550644146</v>
       </c>
       <c r="C3" t="n">
-        <v>69139.7969332095</v>
+        <v>94454.1115051423</v>
       </c>
       <c r="D3" t="n">
-        <v>59359.8500902974</v>
+        <v>84485.8791604616</v>
       </c>
       <c r="E3" t="n">
-        <v>106089.315652327</v>
+        <v>132114.989783149</v>
       </c>
       <c r="F3" t="n">
-        <v>115869.262495239</v>
+        <v>142083.22212783</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>86724.6178376726</v>
+        <v>111920.840604047</v>
       </c>
       <c r="C4" t="n">
-        <v>68287.9348132446</v>
+        <v>93071.9122807118</v>
       </c>
       <c r="D4" t="n">
-        <v>58528.1443645947</v>
+        <v>83093.8923530694</v>
       </c>
       <c r="E4" t="n">
-        <v>105161.300862101</v>
+        <v>130769.768927381</v>
       </c>
       <c r="F4" t="n">
-        <v>114921.09131075</v>
+        <v>140747.788855024</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>76217.9239127062</v>
+        <v>99105.0208722331</v>
       </c>
       <c r="C5" t="n">
-        <v>59884.3900758618</v>
+        <v>82200.0431604323</v>
       </c>
       <c r="D5" t="n">
-        <v>51237.9395553251</v>
+        <v>73251.0885253892</v>
       </c>
       <c r="E5" t="n">
-        <v>92551.4577495506</v>
+        <v>116009.998584034</v>
       </c>
       <c r="F5" t="n">
-        <v>101197.908270087</v>
+        <v>124958.953219077</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>79621.0755990684</v>
+        <v>101994.95493111</v>
       </c>
       <c r="C6" t="n">
-        <v>62422.9852269865</v>
+        <v>84379.0387980829</v>
       </c>
       <c r="D6" t="n">
-        <v>53318.8661223695</v>
+        <v>75053.7360963151</v>
       </c>
       <c r="E6" t="n">
-        <v>96819.1659711502</v>
+        <v>119610.871064137</v>
       </c>
       <c r="F6" t="n">
-        <v>105923.285075767</v>
+        <v>128936.173765905</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>78127.2225627647</v>
+        <v>101677.667331645</v>
       </c>
       <c r="C7" t="n">
-        <v>61120.0602856757</v>
+        <v>83901.8079969647</v>
       </c>
       <c r="D7" t="n">
-        <v>52117.0124092954</v>
+        <v>74491.8364786991</v>
       </c>
       <c r="E7" t="n">
-        <v>95134.3848398536</v>
+        <v>119453.526666326</v>
       </c>
       <c r="F7" t="n">
-        <v>104137.432716234</v>
+        <v>128863.498184591</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>76381.9058074539</v>
+        <v>98184.1994545433</v>
       </c>
       <c r="C8" t="n">
-        <v>59626.8086759153</v>
+        <v>80814.1088183924</v>
       </c>
       <c r="D8" t="n">
-        <v>50757.1960273751</v>
+        <v>71618.9382739799</v>
       </c>
       <c r="E8" t="n">
-        <v>93137.0029389925</v>
+        <v>115554.290090694</v>
       </c>
       <c r="F8" t="n">
-        <v>102006.615587533</v>
+        <v>124749.460635107</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>92295.5289465005</v>
+        <v>119783.15587048</v>
       </c>
       <c r="C9" t="n">
-        <v>71895.2369186343</v>
+        <v>98344.5205488013</v>
       </c>
       <c r="D9" t="n">
-        <v>61095.9746533215</v>
+        <v>86995.5925465476</v>
       </c>
       <c r="E9" t="n">
-        <v>112695.820974367</v>
+        <v>141221.791192158</v>
       </c>
       <c r="F9" t="n">
-        <v>123495.083239679</v>
+        <v>152570.719194412</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>84702.0740021872</v>
+        <v>106440.467054776</v>
       </c>
       <c r="C10" t="n">
-        <v>65840.3976440068</v>
+        <v>87172.5815159679</v>
       </c>
       <c r="D10" t="n">
-        <v>55855.6293143573</v>
+        <v>76972.7790353277</v>
       </c>
       <c r="E10" t="n">
-        <v>103563.750360368</v>
+        <v>125708.352593584</v>
       </c>
       <c r="F10" t="n">
-        <v>113548.518690017</v>
+        <v>135908.155074224</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>96105.9052702125</v>
+        <v>126613.957093435</v>
       </c>
       <c r="C11" t="n">
-        <v>74547.2905142551</v>
+        <v>103438.538260351</v>
       </c>
       <c r="D11" t="n">
-        <v>63134.8492360418</v>
+        <v>91170.2126037832</v>
       </c>
       <c r="E11" t="n">
-        <v>117664.52002617</v>
+        <v>149789.375926519</v>
       </c>
       <c r="F11" t="n">
-        <v>129076.961304383</v>
+        <v>162057.701583087</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>88663.4847240666</v>
+        <v>115584.84437238</v>
       </c>
       <c r="C12" t="n">
-        <v>68630.0493539132</v>
+        <v>94197.194928823</v>
       </c>
       <c r="D12" t="n">
-        <v>58024.9892723242</v>
+        <v>82875.2572200862</v>
       </c>
       <c r="E12" t="n">
-        <v>108696.92009422</v>
+        <v>136972.493815937</v>
       </c>
       <c r="F12" t="n">
-        <v>119301.980175809</v>
+        <v>148294.431524674</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>89298.0875494662</v>
+        <v>116355.613463482</v>
       </c>
       <c r="C13" t="n">
-        <v>68976.8935497612</v>
+        <v>94595.1866528028</v>
       </c>
       <c r="D13" t="n">
-        <v>58219.5032512622</v>
+        <v>83075.9125261056</v>
       </c>
       <c r="E13" t="n">
-        <v>109619.281549171</v>
+        <v>138116.040274161</v>
       </c>
       <c r="F13" t="n">
-        <v>120376.67184767</v>
+        <v>149635.314400858</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>84620.5911796919</v>
+        <v>108499.419089724</v>
       </c>
       <c r="C14" t="n">
-        <v>65227.9336099612</v>
+        <v>87995.7687480233</v>
       </c>
       <c r="D14" t="n">
-        <v>54962.0808059497</v>
+        <v>77141.7918964255</v>
       </c>
       <c r="E14" t="n">
-        <v>104013.248749423</v>
+        <v>129003.069431424</v>
       </c>
       <c r="F14" t="n">
-        <v>114279.101553434</v>
+        <v>139857.046283022</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>87614.6789859611</v>
+        <v>113284.564803738</v>
       </c>
       <c r="C15" t="n">
-        <v>67396.0692315245</v>
+        <v>91656.9898819701</v>
       </c>
       <c r="D15" t="n">
-        <v>56692.9837521638</v>
+        <v>80208.0432970961</v>
       </c>
       <c r="E15" t="n">
-        <v>107833.288740398</v>
+        <v>134912.139725505</v>
       </c>
       <c r="F15" t="n">
-        <v>118536.374219758</v>
+        <v>146361.086310379</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>86724.7392846185</v>
+        <v>111920.854593187</v>
       </c>
       <c r="C16" t="n">
-        <v>66574.0178240464</v>
+        <v>90338.7100113801</v>
       </c>
       <c r="D16" t="n">
-        <v>55906.8702366133</v>
+        <v>78913.8127957686</v>
       </c>
       <c r="E16" t="n">
-        <v>106875.460745191</v>
+        <v>133502.999174993</v>
       </c>
       <c r="F16" t="n">
-        <v>117542.608332624</v>
+        <v>144927.896390605</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>76218.0306463456</v>
+        <v>99105.0332595062</v>
       </c>
       <c r="C17" t="n">
-        <v>58388.5126324246</v>
+        <v>79805.6983474575</v>
       </c>
       <c r="D17" t="n">
-        <v>48950.135925197</v>
+        <v>69589.2475742711</v>
       </c>
       <c r="E17" t="n">
-        <v>94047.5486602666</v>
+        <v>118404.368171555</v>
       </c>
       <c r="F17" t="n">
-        <v>103485.925367494</v>
+        <v>128620.818944741</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>79621.1870983947</v>
+        <v>101994.9676796</v>
       </c>
       <c r="C18" t="n">
-        <v>60870.9426546666</v>
+        <v>81940.6375029147</v>
       </c>
       <c r="D18" t="n">
-        <v>50945.1628173019</v>
+        <v>71324.516378895</v>
       </c>
       <c r="E18" t="n">
-        <v>98371.4315421229</v>
+        <v>122049.297856285</v>
       </c>
       <c r="F18" t="n">
-        <v>108297.211379487</v>
+        <v>132665.418980305</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>78127.3319701372</v>
+        <v>101677.680040477</v>
       </c>
       <c r="C19" t="n">
-        <v>59607.3402305421</v>
+        <v>81495.849097728</v>
       </c>
       <c r="D19" t="n">
-        <v>49803.4488120214</v>
+        <v>70812.2331452094</v>
       </c>
       <c r="E19" t="n">
-        <v>96647.3237097323</v>
+        <v>121859.510983226</v>
       </c>
       <c r="F19" t="n">
-        <v>106451.215128253</v>
+        <v>132543.126935744</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>76382.0127707293</v>
+        <v>98184.2117267217</v>
       </c>
       <c r="C20" t="n">
-        <v>58157.6458553742</v>
+        <v>78514.0612912828</v>
       </c>
       <c r="D20" t="n">
-        <v>48510.2487656966</v>
+        <v>68101.3126374744</v>
       </c>
       <c r="E20" t="n">
-        <v>94606.3796860845</v>
+        <v>117854.362162161</v>
       </c>
       <c r="F20" t="n">
-        <v>104253.776775762</v>
+        <v>128267.110815969</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>92295.6581948085</v>
+        <v>119783.170842341</v>
       </c>
       <c r="C21" t="n">
-        <v>70131.6103655442</v>
+        <v>95566.0002152509</v>
       </c>
       <c r="D21" t="n">
-        <v>58398.6721780806</v>
+        <v>82746.2044707322</v>
       </c>
       <c r="E21" t="n">
-        <v>114459.706024073</v>
+        <v>144000.341469432</v>
       </c>
       <c r="F21" t="n">
-        <v>126192.644211536</v>
+        <v>156820.137213951</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>84702.1926168143</v>
+        <v>106440.480358916</v>
       </c>
       <c r="C22" t="n">
-        <v>64232.2519847751</v>
+        <v>84727.2463666352</v>
       </c>
       <c r="D22" t="n">
-        <v>53396.1199755464</v>
+        <v>73232.9546089267</v>
       </c>
       <c r="E22" t="n">
-        <v>105172.133248853</v>
+        <v>128153.714351198</v>
       </c>
       <c r="F22" t="n">
-        <v>116008.265258082</v>
+        <v>139648.006108906</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>96106.0398544745</v>
+        <v>126613.972919088</v>
       </c>
       <c r="C23" t="n">
-        <v>72734.1725675998</v>
+        <v>100557.080983311</v>
       </c>
       <c r="D23" t="n">
-        <v>60361.8533813707</v>
+        <v>86763.3956062103</v>
       </c>
       <c r="E23" t="n">
-        <v>119477.907141349</v>
+        <v>152670.864854865</v>
       </c>
       <c r="F23" t="n">
-        <v>131850.226327578</v>
+        <v>166464.550231966</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>88663.6088861524</v>
+        <v>115584.858819489</v>
       </c>
       <c r="C24" t="n">
-        <v>66967.7713610739</v>
+        <v>91590.9671960875</v>
       </c>
       <c r="D24" t="n">
-        <v>55482.6887368206</v>
+        <v>78889.3682163936</v>
       </c>
       <c r="E24" t="n">
-        <v>110359.446411231</v>
+        <v>139578.75044289</v>
       </c>
       <c r="F24" t="n">
-        <v>121844.529035484</v>
+        <v>152280.349422584</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>89298.2126002336</v>
+        <v>116355.62800693</v>
       </c>
       <c r="C25" t="n">
-        <v>67313.016906805</v>
+        <v>91995.2759073391</v>
       </c>
       <c r="D25" t="n">
-        <v>55674.7573209496</v>
+        <v>79099.684469751</v>
       </c>
       <c r="E25" t="n">
-        <v>111283.408293662</v>
+        <v>140715.980106521</v>
       </c>
       <c r="F25" t="n">
-        <v>122921.667879518</v>
+        <v>153611.571544109</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>84620.7096802125</v>
+        <v>108499.432651216</v>
       </c>
       <c r="C26" t="n">
-        <v>63660.7805952771</v>
+        <v>85592.8783589579</v>
       </c>
       <c r="D26" t="n">
-        <v>52565.2643673042</v>
+        <v>73466.8809928999</v>
       </c>
       <c r="E26" t="n">
-        <v>105580.638765148</v>
+        <v>131405.986943474</v>
       </c>
       <c r="F26" t="n">
-        <v>116676.154993121</v>
+        <v>143531.984309532</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>87614.801679326</v>
+        <v>113284.578963332</v>
       </c>
       <c r="C27" t="n">
-        <v>65783.1822027223</v>
+        <v>89169.9326753072</v>
       </c>
       <c r="D27" t="n">
-        <v>54226.2209551917</v>
+        <v>76404.4100374988</v>
       </c>
       <c r="E27" t="n">
-        <v>109446.42115593</v>
+        <v>137399.225251356</v>
       </c>
       <c r="F27" t="n">
-        <v>121003.38240346</v>
+        <v>150164.747889164</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>86724.8607317346</v>
+        <v>111920.868582328</v>
       </c>
       <c r="C28" t="n">
-        <v>64986.9471575173</v>
+        <v>87902.5548401355</v>
       </c>
       <c r="D28" t="n">
-        <v>53479.5908183036</v>
+        <v>75188.0275716923</v>
       </c>
       <c r="E28" t="n">
-        <v>108462.774305952</v>
+        <v>135939.182324522</v>
       </c>
       <c r="F28" t="n">
-        <v>119970.130645166</v>
+        <v>148653.709592965</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>76218.1373801344</v>
+        <v>99105.0456467809</v>
       </c>
       <c r="C29" t="n">
-        <v>57001.8501201252</v>
+        <v>77666.5719086717</v>
       </c>
       <c r="D29" t="n">
-        <v>46829.3621183377</v>
+        <v>66317.7294435926</v>
       </c>
       <c r="E29" t="n">
-        <v>95434.4246401437</v>
+        <v>120543.51938489</v>
       </c>
       <c r="F29" t="n">
-        <v>105606.912641931</v>
+        <v>131892.361849969</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>79621.2985978772</v>
+        <v>101994.980428091</v>
       </c>
       <c r="C30" t="n">
-        <v>59430.7046428705</v>
+        <v>79757.2447601859</v>
       </c>
       <c r="D30" t="n">
-        <v>48742.4498318748</v>
+        <v>67985.2985872402</v>
       </c>
       <c r="E30" t="n">
-        <v>99811.8925528839</v>
+        <v>124232.716095997</v>
       </c>
       <c r="F30" t="n">
-        <v>110500.14736388</v>
+        <v>136004.662268943</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>78127.441377663</v>
+        <v>101677.69274931</v>
       </c>
       <c r="C31" t="n">
-        <v>58202.1563214123</v>
+        <v>79336.8401504802</v>
       </c>
       <c r="D31" t="n">
-        <v>47654.3475577122</v>
+        <v>67510.3071716434</v>
       </c>
       <c r="E31" t="n">
-        <v>98052.7264339137</v>
+        <v>124018.54534814</v>
       </c>
       <c r="F31" t="n">
-        <v>108600.535197614</v>
+        <v>135845.078326977</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>76382.1197341546</v>
+        <v>98184.2239989017</v>
       </c>
       <c r="C32" t="n">
-        <v>56791.5629830527</v>
+        <v>76445.7906619568</v>
       </c>
       <c r="D32" t="n">
-        <v>46420.9486805882</v>
+        <v>64938.1591769755</v>
       </c>
       <c r="E32" t="n">
-        <v>95972.6764852564</v>
+        <v>119922.657335847</v>
       </c>
       <c r="F32" t="n">
-        <v>106343.290787721</v>
+        <v>131430.288820828</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>92295.7874432975</v>
+        <v>119783.185814205</v>
       </c>
       <c r="C33" t="n">
-        <v>68490.1214945489</v>
+        <v>93062.4537098471</v>
       </c>
       <c r="D33" t="n">
-        <v>55888.1631681781</v>
+        <v>78917.3525749245</v>
       </c>
       <c r="E33" t="n">
-        <v>116101.453392046</v>
+        <v>146503.917918563</v>
       </c>
       <c r="F33" t="n">
-        <v>128703.411718417</v>
+        <v>160649.019053486</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>84702.3112316075</v>
+        <v>106440.493663059</v>
       </c>
       <c r="C34" t="n">
-        <v>62734.0597636332</v>
+        <v>82519.6480915972</v>
       </c>
       <c r="D34" t="n">
-        <v>51104.7699089128</v>
+        <v>69856.7173560276</v>
       </c>
       <c r="E34" t="n">
-        <v>106670.562699582</v>
+        <v>130361.33923452</v>
       </c>
       <c r="F34" t="n">
-        <v>118299.852554302</v>
+        <v>143024.26997009</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>96106.1744389249</v>
+        <v>126613.988744743</v>
       </c>
       <c r="C35" t="n">
-        <v>71043.4635939624</v>
+        <v>97950.9055386351</v>
       </c>
       <c r="D35" t="n">
-        <v>57776.0658956972</v>
+        <v>82777.5858404455</v>
       </c>
       <c r="E35" t="n">
-        <v>121168.885283887</v>
+        <v>155277.071950851</v>
       </c>
       <c r="F35" t="n">
-        <v>134436.282982153</v>
+        <v>170450.39164904</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>88663.733048412</v>
+        <v>115584.8732666</v>
       </c>
       <c r="C36" t="n">
-        <v>65416.323147745</v>
+        <v>89229.4808474514</v>
       </c>
       <c r="D36" t="n">
-        <v>53109.8877220365</v>
+        <v>75277.7788595172</v>
       </c>
       <c r="E36" t="n">
-        <v>111911.142949079</v>
+        <v>141940.265685748</v>
       </c>
       <c r="F36" t="n">
-        <v>124217.578374788</v>
+        <v>155891.967673682</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>89298.3376511762</v>
+        <v>116355.642550381</v>
       </c>
       <c r="C37" t="n">
-        <v>65758.7123497232</v>
+        <v>89635.4150568973</v>
       </c>
       <c r="D37" t="n">
-        <v>53297.5874349259</v>
+        <v>75490.5810468359</v>
       </c>
       <c r="E37" t="n">
-        <v>112837.962952629</v>
+        <v>143075.870043864</v>
       </c>
       <c r="F37" t="n">
-        <v>125299.087867426</v>
+        <v>157220.704053925</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
